--- a/biology/Histoire de la zoologie et de la botanique/Masters_John_Godfery/Masters_John_Godfery.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Masters_John_Godfery/Masters_John_Godfery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Masters John Godfery est un naturaliste britannique spécialiste des orchidées. Il est né en 1856 et mort le 9 avril 1945 à Torquay.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M. J. Godfery fut un naturaliste passionné par les orchidées. Il suivit les pas de Charles Darwin, sur la recherche et l'étude de nombreuses espèces d'orchidées européennes et de leur taxinomie. Il a principalement travaillé sur les espèces d'orchidées originaires de la Grande-Bretagne en collaboration avec sa femme Hilda Margaret Godfery (1881-1930) dont les illustrations sont des chefs-d'œuvre de la littérature sur les orchidées. Ses recherches à propos de la pollinisation spécifique des Ophrys furent capitales pour en comprendre le sens[1],[2]. Il décrit nombre d'espèces d'orchidées à l'instar d'Epipactis leptochila et Epipactis muelleri[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M. J. Godfery fut un naturaliste passionné par les orchidées. Il suivit les pas de Charles Darwin, sur la recherche et l'étude de nombreuses espèces d'orchidées européennes et de leur taxinomie. Il a principalement travaillé sur les espèces d'orchidées originaires de la Grande-Bretagne en collaboration avec sa femme Hilda Margaret Godfery (1881-1930) dont les illustrations sont des chefs-d'œuvre de la littérature sur les orchidées. Ses recherches à propos de la pollinisation spécifique des Ophrys furent capitales pour en comprendre le sens,. Il décrit nombre d'espèces d'orchidées à l'instar d'Epipactis leptochila et Epipactis muelleri.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Mediterranean Naturalist, Godfery, M.J., 1892
 Orchiserapias triloba and Orchiserapias pisanensis, Orchis Rewiew, Godfery, M.J., 1925
@@ -575,7 +591,9 @@
           <t>Hommage taxonomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Serapias godferyi A.Camus</t>
         </is>
